--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,8</t>
+          <t>7,91; 15,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 16,07</t>
+          <t>8,17; 15,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 23,45</t>
+          <t>13,59; 22,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,63</t>
+          <t>9,05; 17,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,22</t>
+          <t>8,85; 17,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,29</t>
+          <t>12,8; 19,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,96</t>
+          <t>9,4; 15,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,09</t>
+          <t>9,61; 15,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,79</t>
+          <t>14,1; 19,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,19</t>
+          <t>5,09; 9,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,15</t>
+          <t>3,25; 8,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,73</t>
+          <t>5,86; 10,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,88</t>
+          <t>12,34; 19,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,92</t>
+          <t>6,83; 12,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,82</t>
+          <t>5,2; 9,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,21</t>
+          <t>5,19; 10,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,33</t>
+          <t>14,38; 20,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,08</t>
+          <t>6,4; 10,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,88</t>
+          <t>4,78; 8,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,69</t>
+          <t>6,1; 9,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,79</t>
+          <t>13,95; 18,77</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,28</t>
+          <t>4,42; 10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,15</t>
+          <t>4,95; 11,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,03</t>
+          <t>6,82; 12,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,44</t>
+          <t>15,35; 23,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,08</t>
+          <t>6,07; 12,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,76</t>
+          <t>10,44; 17,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 17,82</t>
+          <t>10,37; 18,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 25,36</t>
+          <t>18,7; 25,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,23</t>
+          <t>5,93; 10,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,54</t>
+          <t>8,48; 13,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 14,38</t>
+          <t>9,36; 14,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,36</t>
+          <t>17,98; 23,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,86</t>
+          <t>3,26; 8,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,0</t>
+          <t>6,78; 11,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 14,69</t>
+          <t>8,14; 14,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,56</t>
+          <t>16,67; 27,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,36</t>
+          <t>7,21; 13,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,34</t>
+          <t>6,54; 11,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 17,46</t>
+          <t>9,99; 17,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 24,03</t>
+          <t>16,53; 23,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,98</t>
+          <t>5,97; 9,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,72</t>
+          <t>7,41; 10,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,06</t>
+          <t>9,97; 15,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,25</t>
+          <t>18,17; 24,34</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 14,24</t>
+          <t>6,08; 14,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,46</t>
+          <t>2,58; 8,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 19,79</t>
+          <t>10,39; 19,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,57</t>
+          <t>18,96; 29,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,88</t>
+          <t>1,86; 7,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,44</t>
+          <t>4,13; 11,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,18</t>
+          <t>5,49; 14,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,22</t>
+          <t>11,38; 21,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,48</t>
+          <t>4,51; 9,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,68</t>
+          <t>3,94; 8,56</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 15,08</t>
+          <t>8,85; 14,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 24,22</t>
+          <t>17,12; 24,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,99</t>
+          <t>5,18; 11,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,86</t>
+          <t>4,66; 11,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,86</t>
+          <t>7,78; 16,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 31,6</t>
+          <t>22,22; 31,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 15,52</t>
+          <t>8,28; 15,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,53</t>
+          <t>9,14; 17,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,07</t>
+          <t>9,78; 17,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,51</t>
+          <t>17,21; 24,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,52</t>
+          <t>7,46; 12,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,23</t>
+          <t>7,97; 13,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,19</t>
+          <t>9,62; 15,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,94</t>
+          <t>20,96; 26,69</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,53</t>
+          <t>5,22; 9,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 11,71</t>
+          <t>6,99; 11,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,86</t>
+          <t>15,59; 21,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,12</t>
+          <t>14,94; 21,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,75</t>
+          <t>6,38; 10,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,97</t>
+          <t>8,53; 13,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,28</t>
+          <t>17,23; 23,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,63</t>
+          <t>7,33; 14,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,43</t>
+          <t>6,33; 9,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,09</t>
+          <t>8,64; 12,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 21,53</t>
+          <t>17,33; 21,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,72</t>
+          <t>11,0; 16,74</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,01</t>
+          <t>4,41; 7,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,92</t>
+          <t>8,27; 13,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,06</t>
+          <t>10,15; 14,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,96</t>
+          <t>9,57; 15,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,78</t>
+          <t>5,52; 9,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,9</t>
+          <t>7,64; 12,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,79</t>
+          <t>10,17; 14,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,25</t>
+          <t>16,16; 21,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,09</t>
+          <t>5,62; 8,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,87</t>
+          <t>8,63; 11,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,12</t>
+          <t>10,83; 14,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,4</t>
+          <t>13,56; 17,35</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,34; 8,24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,46; 9,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,43; 13,71</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,2</t>
+          <t>16,33; 19,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,7; 9,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,99; 10,95</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,91; 14,48</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,58</t>
+          <t>15,63; 18,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,43; 8,74</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,45; 9,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,03; 13,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 18,58</t>
+          <t>16,51; 18,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,91; 15,78</t>
+          <t>7,76; 15,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 15,93</t>
+          <t>7,9; 15,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 17,49</t>
+          <t>8,96; 17,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 17,66</t>
+          <t>8,75; 17,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 15,27</t>
+          <t>9,4; 14,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,24</t>
+          <t>9,36; 15,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,97</t>
+          <t>4,9; 9,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,19</t>
+          <t>3,04; 7,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,85</t>
+          <t>5,58; 10,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,16</t>
+          <t>6,94; 12,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,62</t>
+          <t>5,23; 9,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,23</t>
+          <t>5,31; 10,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,16</t>
+          <t>6,56; 10,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,78; 8,03</t>
+          <t>4,62; 7,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 9,76</t>
+          <t>6,01; 9,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 10,42</t>
+          <t>4,7; 10,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 11,16</t>
+          <t>4,98; 10,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,87</t>
+          <t>6,59; 12,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 12,42</t>
+          <t>5,97; 12,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 17,84</t>
+          <t>10,12; 17,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,37; 18,61</t>
+          <t>10,42; 18,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,01</t>
+          <t>6,0; 10,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,55</t>
+          <t>8,13; 13,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,36; 14,48</t>
+          <t>9,38; 14,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,45</t>
+          <t>3,29; 8,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,12</t>
+          <t>6,86; 11,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,95</t>
+          <t>8,3; 15,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 13,21</t>
+          <t>7,23; 13,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,31</t>
+          <t>6,85; 11,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,99; 17,49</t>
+          <t>10,1; 17,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,86</t>
+          <t>5,92; 10,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,5</t>
+          <t>7,44; 10,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,15</t>
+          <t>9,77; 14,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,1</t>
+          <t>5,9; 14,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,98</t>
+          <t>2,46; 8,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,39; 19,63</t>
+          <t>10,19; 19,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,35</t>
+          <t>1,89; 7,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,28</t>
+          <t>4,29; 11,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 14,52</t>
+          <t>5,7; 13,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,25</t>
+          <t>4,62; 9,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 8,56</t>
+          <t>4,11; 8,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,91</t>
+          <t>8,96; 15,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 11,95</t>
+          <t>5,13; 11,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,66; 11,26</t>
+          <t>4,91; 11,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,78; 16,29</t>
+          <t>7,85; 15,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,84</t>
+          <t>7,62; 15,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,19</t>
+          <t>9,31; 18,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 17,89</t>
+          <t>9,7; 18,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,52</t>
+          <t>7,44; 12,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,97; 13,37</t>
+          <t>7,93; 13,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,28</t>
+          <t>9,36; 15,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,62</t>
+          <t>4,98; 9,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,91</t>
+          <t>7,29; 11,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,62</t>
+          <t>15,55; 22,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 10,75</t>
+          <t>6,31; 10,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,82</t>
+          <t>8,74; 13,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 23,53</t>
+          <t>16,87; 23,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 9,48</t>
+          <t>6,14; 9,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,18</t>
+          <t>8,66; 12,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,33; 21,93</t>
+          <t>17,03; 21,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,87</t>
+          <t>4,43; 7,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,22</t>
+          <t>8,5; 13,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,85</t>
+          <t>10,29; 15,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,56</t>
+          <t>5,46; 9,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,02</t>
+          <t>7,74; 11,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,8</t>
+          <t>10,15; 14,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,16</t>
+          <t>5,57; 8,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,9</t>
+          <t>8,65; 11,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,83; 14,1</t>
+          <t>10,74; 14,02</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,34; 8,24</t>
+          <t>6,4; 8,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,39</t>
+          <t>7,29; 9,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,43; 13,71</t>
+          <t>11,51; 13,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,76</t>
+          <t>7,85; 9,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,99; 10,95</t>
+          <t>8,95; 10,96</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,48</t>
+          <t>11,96; 14,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,43; 8,74</t>
+          <t>7,4; 8,8</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 9,87</t>
+          <t>8,38; 9,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,03; 13,72</t>
+          <t>12,06; 13,79</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 15,79</t>
+          <t>7,71; 15,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 15,93</t>
+          <t>8,09; 16,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 22,9</t>
+          <t>13,75; 23,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 17,65</t>
+          <t>8,91; 17,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,75; 17,25</t>
+          <t>8,47; 17,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,33</t>
+          <t>12,93; 19,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,98</t>
+          <t>9,18; 14,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,31</t>
+          <t>9,43; 15,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,78</t>
+          <t>14,09; 19,79</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,9</t>
+          <t>4,93; 10,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,84</t>
+          <t>3,31; 8,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,84</t>
+          <t>5,93; 10,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,34; 19,72</t>
+          <t>12,31; 19,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,94; 12,35</t>
+          <t>7,01; 11,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,56</t>
+          <t>5,21; 9,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,2</t>
+          <t>5,41; 10,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,38; 20,14</t>
+          <t>14,4; 20,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,08</t>
+          <t>6,48; 10,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,96</t>
+          <t>4,75; 7,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 9,54</t>
+          <t>6,2; 9,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,77</t>
+          <t>14,19; 18,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,5</t>
+          <t>4,21; 10,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,72</t>
+          <t>4,94; 11,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,77</t>
+          <t>6,69; 13,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,35; 23,86</t>
+          <t>15,47; 23,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,24</t>
+          <t>5,98; 12,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 17,99</t>
+          <t>10,11; 17,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 18,69</t>
+          <t>10,3; 17,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 25,8</t>
+          <t>18,77; 25,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,21</t>
+          <t>6,07; 10,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 13,46</t>
+          <t>8,56; 13,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 14,36</t>
+          <t>9,2; 14,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,58</t>
+          <t>18,12; 23,36</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 8,28</t>
+          <t>3,51; 8,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,06</t>
+          <t>6,86; 11,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 15,0</t>
+          <t>8,23; 14,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 27,37</t>
+          <t>16,65; 27,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 13,47</t>
+          <t>7,02; 13,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,47</t>
+          <t>6,85; 11,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 17,49</t>
+          <t>9,95; 17,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,84</t>
+          <t>16,85; 24,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,01</t>
+          <t>5,95; 9,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,7</t>
+          <t>7,42; 10,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,72</t>
+          <t>10,03; 15,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,34</t>
+          <t>17,9; 24,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,66</t>
+          <t>5,83; 14,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,94</t>
+          <t>2,45; 8,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 19,66</t>
+          <t>10,24; 19,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,96; 29,76</t>
+          <t>19,71; 30,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,36</t>
+          <t>1,87; 6,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,5</t>
+          <t>4,43; 11,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 13,85</t>
+          <t>5,51; 14,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 21,43</t>
+          <t>12,25; 21,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,47</t>
+          <t>4,65; 9,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,81</t>
+          <t>4,02; 8,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 15,09</t>
+          <t>8,82; 15,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,12; 24,19</t>
+          <t>16,77; 24,22</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,88</t>
+          <t>5,44; 11,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,97</t>
+          <t>4,91; 11,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 15,97</t>
+          <t>7,55; 15,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,22; 31,68</t>
+          <t>22,74; 31,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 15,31</t>
+          <t>7,86; 15,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,06</t>
+          <t>9,64; 17,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,7; 18,15</t>
+          <t>9,6; 18,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,36</t>
+          <t>17,35; 24,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,33</t>
+          <t>7,29; 12,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 13,28</t>
+          <t>7,75; 13,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,23</t>
+          <t>9,62; 15,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,96; 26,69</t>
+          <t>21,02; 26,94</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,98; 9,53</t>
+          <t>5,14; 9,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,91</t>
+          <t>7,02; 11,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,55; 22,04</t>
+          <t>15,43; 21,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,94; 21,06</t>
+          <t>14,9; 21,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,7</t>
+          <t>6,28; 10,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,96</t>
+          <t>8,79; 13,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 23,29</t>
+          <t>17,1; 23,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 14,81</t>
+          <t>7,36; 14,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 9,35</t>
+          <t>6,27; 9,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,17</t>
+          <t>8,51; 12,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,44</t>
+          <t>17,17; 21,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,0; 16,74</t>
+          <t>10,9; 16,72</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 7,94</t>
+          <t>4,45; 8,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,18</t>
+          <t>8,27; 12,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,05</t>
+          <t>10,23; 15,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,57; 15,07</t>
+          <t>9,83; 14,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,48</t>
+          <t>5,85; 9,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,89</t>
+          <t>7,67; 11,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,15; 14,93</t>
+          <t>10,06; 14,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,16; 21,01</t>
+          <t>16,29; 21,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,09</t>
+          <t>5,52; 8,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,65; 11,87</t>
+          <t>8,7; 11,87</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,02</t>
+          <t>10,74; 14,12</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,35</t>
+          <t>13,5; 17,4</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,27</t>
+          <t>6,39; 8,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,29; 9,42</t>
+          <t>7,45; 9,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,51; 13,87</t>
+          <t>11,37; 13,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,33; 19,41</t>
+          <t>16,52; 19,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,85; 9,77</t>
+          <t>7,74; 9,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 10,96</t>
+          <t>8,95; 11,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,96; 14,41</t>
+          <t>12,04; 14,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 18,53</t>
+          <t>15,71; 18,58</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,4; 8,8</t>
+          <t>7,36; 8,75</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,38; 9,9</t>
+          <t>8,53; 9,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,06; 13,79</t>
+          <t>12,0; 13,69</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,51; 18,59</t>
+          <t>16,56; 18,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 11,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 23,45</t>
+          <t>13,28; 24,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 13,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,29</t>
+          <t>12,31; 18,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 11,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,79</t>
+          <t>13,55; 20,03</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,11%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 19,88</t>
+          <t>11,9; 19,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,33</t>
+          <t>14,33; 20,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,79</t>
+          <t>13,93; 18,54</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>21,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,26%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,44</t>
+          <t>15,19; 23,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 25,36</t>
+          <t>18,43; 24,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,36</t>
+          <t>17,72; 22,94</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>18,9%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,0</t>
+          <t>6,91; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 27,56</t>
+          <t>16,68; 27,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,34</t>
+          <t>6,11; 11,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 24,03</t>
+          <t>9,9; 22,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,72</t>
+          <t>7,23; 11,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 24,25</t>
+          <t>13,75; 22,46</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>19,52%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,57</t>
+          <t>19,71; 30,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,22</t>
+          <t>8,32; 20,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,77; 24,22</t>
+          <t>13,26; 23,5</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,91%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 31,6</t>
+          <t>22,71; 31,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,35; 24,51</t>
+          <t>17,4; 24,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,94</t>
+          <t>21,06; 27,04</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,9; 21,12</t>
+          <t>14,34; 20,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 14,63</t>
+          <t>4,63; 14,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,72</t>
+          <t>8,23; 16,14</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>13,64%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,83; 14,96</t>
+          <t>4,38; 14,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,25</t>
+          <t>16,28; 21,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,5; 17,4</t>
+          <t>8,42; 16,69</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>16,48%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,52; 19,2</t>
+          <t>13,41; 18,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,71; 18,58</t>
+          <t>13,49; 17,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>16,56; 18,58</t>
+          <t>14,49; 17,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,8</t>
+          <t>7,59; 15,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 11,37</t>
+          <t>5,13; 11,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,09; 16,07</t>
+          <t>8,21; 15,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 24,73</t>
+          <t>13,18; 23,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 17,63</t>
+          <t>9,3; 17,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 13,1</t>
+          <t>6,04; 13,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 17,22</t>
+          <t>8,7; 16,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 18,59</t>
+          <t>12,57; 18,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,96</t>
+          <t>9,47; 15,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 11,18</t>
+          <t>6,08; 10,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,09</t>
+          <t>9,35; 15,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 20,03</t>
+          <t>13,84; 20,53</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,93; 10,19</t>
+          <t>5,0; 10,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,15</t>
+          <t>3,18; 8,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 10,73</t>
+          <t>5,91; 11,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 19,34</t>
+          <t>11,82; 19,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,92</t>
+          <t>6,74; 12,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,82</t>
+          <t>5,22; 9,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,21</t>
+          <t>5,16; 10,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 20,2</t>
+          <t>14,29; 19,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,08</t>
+          <t>6,53; 10,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,88</t>
+          <t>4,79; 8,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,69</t>
+          <t>6,1; 9,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,54</t>
+          <t>13,82; 18,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,28</t>
+          <t>4,52; 10,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 11,15</t>
+          <t>4,98; 10,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 13,03</t>
+          <t>6,71; 12,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 23,11</t>
+          <t>15,03; 23,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,08</t>
+          <t>5,85; 12,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,11; 17,76</t>
+          <t>10,39; 17,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 17,82</t>
+          <t>10,14; 18,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,97</t>
+          <t>18,32; 25,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,23</t>
+          <t>5,95; 10,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,54</t>
+          <t>8,36; 13,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 14,38</t>
+          <t>9,47; 14,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,94</t>
+          <t>17,46; 22,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,86</t>
+          <t>3,67; 8,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 13,39</t>
+          <t>6,67; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 14,69</t>
+          <t>8,41; 15,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 27,73</t>
+          <t>16,72; 28,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 13,36</t>
+          <t>6,96; 13,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,92</t>
+          <t>6,32; 12,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 17,46</t>
+          <t>10,02; 17,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 22,28</t>
+          <t>10,59; 22,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 9,98</t>
+          <t>5,91; 9,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,23; 11,6</t>
+          <t>7,37; 11,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,06</t>
+          <t>10,02; 15,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 22,46</t>
+          <t>13,59; 22,79</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,83; 14,24</t>
+          <t>5,9; 14,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,46</t>
+          <t>2,44; 8,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,24; 19,79</t>
+          <t>10,15; 20,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,71; 30,59</t>
+          <t>19,92; 30,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,88</t>
+          <t>1,72; 7,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,43; 11,44</t>
+          <t>3,86; 10,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 14,18</t>
+          <t>5,42; 13,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 20,52</t>
+          <t>8,74; 20,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,48</t>
+          <t>4,6; 9,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,68</t>
+          <t>3,88; 8,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 15,08</t>
+          <t>8,71; 15,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 23,5</t>
+          <t>13,24; 23,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 11,99</t>
+          <t>5,49; 12,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 11,86</t>
+          <t>4,86; 11,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,86</t>
+          <t>7,55; 15,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,71; 31,73</t>
+          <t>22,4; 32,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 15,52</t>
+          <t>7,93; 15,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,53</t>
+          <t>9,35; 17,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,07</t>
+          <t>9,37; 17,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,4; 24,56</t>
+          <t>17,52; 24,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,52</t>
+          <t>7,54; 12,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,23</t>
+          <t>7,93; 13,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,62; 15,19</t>
+          <t>9,64; 15,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>21,06; 27,04</t>
+          <t>21,11; 26,84</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,53</t>
+          <t>5,18; 9,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,02; 11,71</t>
+          <t>7,28; 11,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 21,86</t>
+          <t>15,56; 21,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,34; 20,51</t>
+          <t>14,56; 21,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,75</t>
+          <t>6,41; 10,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,97</t>
+          <t>8,55; 13,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,1; 23,28</t>
+          <t>17,13; 23,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 14,22</t>
+          <t>5,41; 14,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,43</t>
+          <t>6,29; 9,42</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,09</t>
+          <t>8,64; 12,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 21,53</t>
+          <t>17,0; 21,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,23; 16,14</t>
+          <t>8,31; 15,95</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,01</t>
+          <t>4,55; 8,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,92</t>
+          <t>8,52; 13,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,06</t>
+          <t>10,19; 15,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,38; 14,01</t>
+          <t>3,92; 14,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,85; 9,78</t>
+          <t>5,73; 9,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,9</t>
+          <t>7,85; 12,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,06; 14,79</t>
+          <t>9,96; 14,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,11</t>
+          <t>16,03; 20,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,09</t>
+          <t>5,55; 8,11</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,87</t>
+          <t>8,55; 11,47</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,74; 14,12</t>
+          <t>10,79; 14,17</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 16,69</t>
+          <t>8,56; 16,64</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,3</t>
+          <t>6,4; 8,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,42</t>
+          <t>7,36; 9,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,79</t>
+          <t>11,55; 13,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,6</t>
+          <t>12,92; 18,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 9,75</t>
+          <t>7,8; 9,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,95; 11,05</t>
+          <t>8,9; 10,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,04; 14,45</t>
+          <t>11,92; 14,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 17,81</t>
+          <t>13,16; 17,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,75</t>
+          <t>7,35; 8,68</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8,53; 9,9</t>
+          <t>8,47; 9,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>12,0; 13,69</t>
+          <t>12,02; 13,74</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,71</t>
+          <t>14,29; 17,84</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares unipersonales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30871</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>23378</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>34255</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33253</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25632</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35833</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43903</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>64124</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>49010</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>70088</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>98892</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20732; 43098</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15105; 33068</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24126; 46181</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41050; 73724</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>24266; 46717</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17343; 38751</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25123; 47941</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36410; 53344</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>50567; 80204</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35363; 63263</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>54462; 87714</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>83159; 123385</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35154</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26365</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>40208</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>79646</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>46775</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37297</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39083</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>86845</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>81930</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63662</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>79291</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>166492</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24674; 49416</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16088; 41783</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29703; 55508</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>61296; 101063</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33942; 61418</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27348; 50095</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26998; 53456</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>73609; 102427</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>65111; 102814</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>49280; 83975</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>62574; 98718</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>142813; 192039</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22312</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24428</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29997</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59697</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29493</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46909</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46463</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75065</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51806</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71337</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>76460</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>134763</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14408; 33333</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>16146; 35469</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21364; 41008</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47500; 74383</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19626; 40808</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35444; 61188</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34092; 60724</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63965; 88004</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>38916; 67674</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>55614; 89279</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>62022; 94920</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>116154; 152551</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>20202</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>35942</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>41942</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67475</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36325</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34289</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51744</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>81489</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>56527</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>70230</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>93686</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>148964</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13160; 31212</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24934; 48223</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31117; 56237</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>52259; 88222</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25851; 48420</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24598; 48393</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38805; 68483</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50402; 106176</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>43183; 71188</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>56206; 89002</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>75892; 113928</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107118; 179685</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19219</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10394</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30762</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>44213</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8084</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15693</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19487</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>41179</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27303</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26087</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>50248</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85392</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11996; 28850</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5183; 17622</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21445; 42283</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35611; 54912</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3572; 14960</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8478; 23557</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11848; 30021</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>22626; 53998</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18918; 37717</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16769; 37464</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>37427; 65110</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57948; 101411</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21968</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>20943</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29670</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>72481</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31340</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>36895</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>36217</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>53474</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>53308</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>57839</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>65887</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>125955</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14869; 33507</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13312; 30764</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>19867; 40972</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>60387; 86353</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22067; 43808</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>26176; 49791</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25600; 48936</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>45035; 62964</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>41406; 69434</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>43922; 75725</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>51692; 82027</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>111182; 141345</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>43625</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>61654</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>121860</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>109292</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>53013</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>77510</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>138145</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>87571</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>96638</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>139164</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>260005</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>196863</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>31838; 61090</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>48284; 79290</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>102158; 143907</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>90892; 131548</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>40898; 67713</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>59337; 97086</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>118395; 164500</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>45964; 121158</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>78867; 117994</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>117185; 164364</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>229071; 292078</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>122515; 235075</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>45297</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>81961</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>97401</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>91598</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>57849</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>79862</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>101026</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>132983</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>103146</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>161823</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>198427</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>224581</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>33838; 59503</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>66368; 102278</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>79341; 117198</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>36452; 130215</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>44863; 73802</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>64696; 100917</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>82309; 122523</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>115072; 150375</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>84733; 123937</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>136974; 183846</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>173154; 227413</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>140912; 274039</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1128</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1817</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>238649</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>285066</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>426095</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>579391</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>296132</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>354087</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>467998</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>602510</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>534781</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>639153</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>894093</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1181902</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>209536; 267820</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>252379; 322286</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>391908; 467061</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>446849; 643924</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>263461; 331569</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>316856; 391205</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>422524; 510518</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>488579; 659073</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>489298; 577801</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>591395; 689537</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>834114; 953145</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1025000; 1279680</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>